--- a/data/trans_dic/P40_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6699768755734316</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6097157087075165</v>
+        <v>0.6097157087075166</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5315339491000218</v>
@@ -697,7 +697,7 @@
         <v>0.5849378037267856</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5076160780221591</v>
+        <v>0.507616078022159</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6533381538101468</v>
+        <v>0.6538501736363361</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.625616103432027</v>
+        <v>0.6299885672391292</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6362232963717773</v>
+        <v>0.6347214915145233</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5702214974813751</v>
+        <v>0.5714422464298814</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5047858120693764</v>
+        <v>0.5060074188504102</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4977137312320165</v>
+        <v>0.4996856491531705</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4868942372755304</v>
+        <v>0.4812897765706557</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4084269913867431</v>
+        <v>0.4063576247872032</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5787287017406153</v>
+        <v>0.5768729123638976</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5623247729819415</v>
+        <v>0.5621816619233839</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5625328350755778</v>
+        <v>0.5592865799482299</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4847638039243786</v>
+        <v>0.4858375103918388</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.711625392425307</v>
+        <v>0.7124275443621129</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6929157624020715</v>
+        <v>0.6927359541634088</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7011812839181961</v>
+        <v>0.7011134963414557</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6451963265905287</v>
+        <v>0.6501701563104206</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5591484845750052</v>
+        <v>0.5600273518355076</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5514586219309903</v>
+        <v>0.5530844787893137</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5532291283519766</v>
+        <v>0.5535244267958136</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4636311141705031</v>
+        <v>0.4622774175108808</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6192206236541109</v>
+        <v>0.6190220815426185</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6053322463653826</v>
+        <v>0.6049463127292869</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6107238462093043</v>
+        <v>0.610070629326139</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5319233382269575</v>
+        <v>0.5298732529023693</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.8217782361145155</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.7894097527790623</v>
+        <v>0.7894097527790621</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.8692867850399891</v>
@@ -833,7 +833,7 @@
         <v>0.8517991397167545</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.8175255224805379</v>
+        <v>0.8175255224805378</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8983889781610995</v>
+        <v>0.8963098431933051</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8799252084280164</v>
+        <v>0.8794062410521851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8651402253238923</v>
+        <v>0.8657007992628811</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8263932945346341</v>
+        <v>0.8289926330326722</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8037342873350561</v>
+        <v>0.8048589171915512</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8214561571396175</v>
+        <v>0.821156733338318</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8027424642845062</v>
+        <v>0.8026148560514167</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7721152576259296</v>
+        <v>0.7735304783012505</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8567840819335351</v>
+        <v>0.8578404106540196</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.856861149090768</v>
+        <v>0.8565690911892446</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8404083311094882</v>
+        <v>0.8391107809959484</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8060392063241643</v>
+        <v>0.8066006094761914</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9254739956185892</v>
+        <v>0.9254632723098363</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.907428020270126</v>
+        <v>0.9089163790764951</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8945655407624621</v>
+        <v>0.8943581870971523</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8592918192090336</v>
+        <v>0.8606074806837261</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8417227758683107</v>
+        <v>0.8419719545570562</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8576938469926139</v>
+        <v>0.8574591413571025</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8409167533205578</v>
+        <v>0.8381097482204154</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8042693847710917</v>
+        <v>0.8056842703738396</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8806657294313709</v>
+        <v>0.8808869753844353</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8785050538966119</v>
+        <v>0.8796893874073626</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8630267120309802</v>
+        <v>0.862351291052777</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.828637066912407</v>
+        <v>0.8286043807441485</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.9066384087229148</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8678875958875986</v>
+        <v>0.8678875958875985</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.883804036070165</v>
+        <v>0.882500379693077</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8854458653691524</v>
+        <v>0.883430964603197</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8862939377659119</v>
+        <v>0.8899557514580901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8504624008251118</v>
+        <v>0.8480437976154767</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8234195598947184</v>
+        <v>0.8231159463510056</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8782267325472898</v>
+        <v>0.8781961147743182</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8669882235411929</v>
+        <v>0.8661343015214875</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.833776197927993</v>
+        <v>0.8331864012835469</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8615815083464695</v>
+        <v>0.8641395514349237</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8915603146095517</v>
+        <v>0.8928895720605422</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8874342495988309</v>
+        <v>0.8872024428523444</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8514232789098188</v>
+        <v>0.8500250446438925</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9339857666049675</v>
+        <v>0.9353679853234778</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9444651914211466</v>
+        <v>0.944054560973092</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9407019540375255</v>
+        <v>0.9388427837165333</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9012366801931965</v>
+        <v>0.9012061538975678</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8891748841197546</v>
+        <v>0.8896070672818132</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9372310302225829</v>
+        <v>0.9389040608723471</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9200215479471323</v>
+        <v>0.922908158272794</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8791791483848547</v>
+        <v>0.8802677311099559</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9051460545656402</v>
+        <v>0.9047970800215712</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9326190947515762</v>
+        <v>0.9338994131506797</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9245432650768536</v>
+        <v>0.9248333090104205</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.88307452058242</v>
+        <v>0.8843824841507834</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8395951288937522</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8129545934578923</v>
+        <v>0.8129545934578924</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7149000362582846</v>
@@ -1105,7 +1105,7 @@
         <v>0.7930097099863183</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7676976040592878</v>
+        <v>0.767697604059288</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8270560069266663</v>
+        <v>0.8268632092739383</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8169156833008941</v>
+        <v>0.8176050728418308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8240099131107755</v>
+        <v>0.8262966075758037</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.800318166678355</v>
+        <v>0.7996422659186908</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6988692319201895</v>
+        <v>0.7001548348716669</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7147717812493689</v>
+        <v>0.7152084625783879</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7332834403862823</v>
+        <v>0.7317080054791941</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7119511263373718</v>
+        <v>0.712980624594388</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7658304141338215</v>
+        <v>0.7663484795343316</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7687011376061469</v>
+        <v>0.7689785090141454</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7831075336236517</v>
+        <v>0.7832536359678871</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7597031861787032</v>
+        <v>0.7584166334859757</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8530764651913789</v>
+        <v>0.8523683195355858</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8454133536015436</v>
+        <v>0.8448189491409388</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8517784745359502</v>
+        <v>0.8521811158798137</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8263744970812439</v>
+        <v>0.8256809292256591</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7309283245570711</v>
+        <v>0.7301357637525615</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7462719037589934</v>
+        <v>0.7466620601355116</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7623141237859848</v>
+        <v>0.7630908439078073</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.73712760844172</v>
+        <v>0.7379525439418961</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7870204204303629</v>
+        <v>0.786570472685741</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7893745568235253</v>
+        <v>0.7906079469264723</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8031030053091053</v>
+        <v>0.802550531241459</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7762162858562915</v>
+        <v>0.7767031801758457</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>673447</v>
+        <v>673975</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>604709</v>
+        <v>608935</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>474329</v>
+        <v>473209</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>329890</v>
+        <v>330596</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>662948</v>
+        <v>664552</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>663912</v>
+        <v>666542</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>481627</v>
+        <v>476083</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>335743</v>
+        <v>334041</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1356600</v>
+        <v>1352250</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1293630</v>
+        <v>1293301</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>975837</v>
+        <v>970206</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>678944</v>
+        <v>680448</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>733529</v>
+        <v>734355</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>669759</v>
+        <v>669585</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>522757</v>
+        <v>522707</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>373265</v>
+        <v>376142</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>734344</v>
+        <v>735498</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>735603</v>
+        <v>737772</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>547244</v>
+        <v>547536</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>381122</v>
+        <v>380010</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1451518</v>
+        <v>1451052</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1392569</v>
+        <v>1391681</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1059435</v>
+        <v>1058302</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>744994</v>
+        <v>742123</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1519655</v>
+        <v>1516138</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1698708</v>
+        <v>1697706</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1788159</v>
+        <v>1789318</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1843325</v>
+        <v>1849123</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1276067</v>
+        <v>1277853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1430092</v>
+        <v>1429571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1580908</v>
+        <v>1580657</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1676565</v>
+        <v>1679638</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2809572</v>
+        <v>2813035</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3145912</v>
+        <v>3144839</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3392128</v>
+        <v>3386890</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3548152</v>
+        <v>3550623</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1565470</v>
+        <v>1565452</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1751802</v>
+        <v>1754676</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1848978</v>
+        <v>1848550</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1916707</v>
+        <v>1919642</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1336381</v>
+        <v>1336776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1493179</v>
+        <v>1492770</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1656088</v>
+        <v>1650560</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1746384</v>
+        <v>1749456</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2887884</v>
+        <v>2888610</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>3225376</v>
+        <v>3229724</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>3483422</v>
+        <v>3480696</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>3647626</v>
+        <v>3647483</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>487337</v>
+        <v>486618</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>423539</v>
+        <v>422575</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>483004</v>
+        <v>484999</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>605178</v>
+        <v>603457</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>392287</v>
+        <v>392142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>400649</v>
+        <v>400635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>471010</v>
+        <v>470547</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>612723</v>
+        <v>612290</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>885551</v>
+        <v>888180</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>833195</v>
+        <v>834437</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>965743</v>
+        <v>965491</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1231553</v>
+        <v>1229531</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>515007</v>
+        <v>515769</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>451770</v>
+        <v>451573</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>512654</v>
+        <v>511641</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>641308</v>
+        <v>641287</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>423614</v>
+        <v>423819</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>427567</v>
+        <v>428330</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>499822</v>
+        <v>501390</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>646089</v>
+        <v>646889</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>930327</v>
+        <v>929969</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>871566</v>
+        <v>872763</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1006127</v>
+        <v>1006442</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1277336</v>
+        <v>1279227</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2707550</v>
+        <v>2706919</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2757441</v>
+        <v>2759768</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2766538</v>
+        <v>2774216</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2817667</v>
+        <v>2815287</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2360367</v>
+        <v>2364709</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2523893</v>
+        <v>2525435</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2567840</v>
+        <v>2562323</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2654372</v>
+        <v>2658211</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5093637</v>
+        <v>5097083</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5309017</v>
+        <v>5310932</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5371529</v>
+        <v>5372531</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5507081</v>
+        <v>5497755</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2792733</v>
+        <v>2790415</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2853633</v>
+        <v>2851626</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2859769</v>
+        <v>2861121</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2909403</v>
+        <v>2906961</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2468644</v>
+        <v>2465967</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2635122</v>
+        <v>2636500</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2669501</v>
+        <v>2672221</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2748238</v>
+        <v>2751314</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5234574</v>
+        <v>5231582</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5451797</v>
+        <v>5460316</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>5508683</v>
+        <v>5504893</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>5626784</v>
+        <v>5630314</v>
       </c>
     </row>
     <row r="20">
